--- a/Supplementary Data 2.4.xlsx
+++ b/Supplementary Data 2.4.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehartman/Dropbox/Manuscripts/Compartments/Emily Hartman Heatmap/NComms/Revisions/Final Revisions/Final Package/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ehartman/Dropbox/Lab Members/Emily/Thesis/Chapter 2 Methods/Supplementary Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D871C0CE-31A9-624F-9E2D-795492965C08}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15460" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NNK Substitution" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="445">
   <si>
     <t>#</t>
   </si>
@@ -1277,9 +1283,6 @@
     <t>a GGTCTC a TTTA gtagatgccggagtttgctgcgattgctgagggaatc</t>
   </si>
   <si>
-    <t>Short Primers</t>
-  </si>
-  <si>
     <t>aaaaGGTCTCaCGCT</t>
   </si>
   <si>
@@ -1335,13 +1338,43 @@
   </si>
   <si>
     <t>Primers for High-Throughput Sequencing</t>
+  </si>
+  <si>
+    <t>aGGTCTCaCGCTaacggggtcgctgaatggatcagctctaactcgcgttcacaggcttacaaagtaacctgtagcgttCCGcagagctctGCGCtGAGACCt</t>
+  </si>
+  <si>
+    <t>R49P</t>
+  </si>
+  <si>
+    <t>aGGTCTCaCGCTaacggggtcgctgaatggatcagctctaactcgcgttcacaggcttacaaagtaacctgtagcgttGCGcagagctctGCGCtGAGACCt</t>
+  </si>
+  <si>
+    <t>R49A</t>
+  </si>
+  <si>
+    <t>aGGTCTCaCGCTaacggggtcgctgaatggatcagctctaactcgcgttcacaggcttacaaagtaacctgtagcgttCAGcagagctctGCGCtGAGACCt</t>
+  </si>
+  <si>
+    <t>R49Q</t>
+  </si>
+  <si>
+    <t>aGGTCTCaTCCTgtagccgcatggcgttcgtacttaaatatggaactaATTattccaattttcgctacgaattccgactgcgagcttattGTTAtGAGACCt</t>
+  </si>
+  <si>
+    <t>T91I</t>
+  </si>
+  <si>
+    <t>aGGTCTCaTCCTgtagccgcatggcgttcgtacttaaatatggaactaGCGattccaattttcgctacgaattccgactgcgagcttattGTTAtGAGACCt</t>
+  </si>
+  <si>
+    <t>T91A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1407,6 +1440,31 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1432,7 +1490,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1440,6 +1498,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -1723,11 +1785,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R230"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="A219" sqref="A219"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="116" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1740,7 +1802,7 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -5748,7 +5810,7 @@
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="133" spans="1:18" ht="17" x14ac:dyDescent="0.2">
@@ -6040,7 +6102,7 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -6101,7 +6163,7 @@
         <v>266</v>
       </c>
       <c r="D152" s="2">
-        <f t="shared" ref="D152:D175" si="4">LEN(B152)</f>
+        <f t="shared" ref="D152:D180" si="4">LEN(B152)</f>
         <v>66</v>
       </c>
       <c r="E152" s="2" t="s">
@@ -6651,163 +6713,183 @@
       </c>
     </row>
     <row r="176" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A176" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="B176" s="2"/>
-      <c r="C176" s="2"/>
-      <c r="D176" s="2"/>
-      <c r="E176" s="2"/>
-    </row>
-    <row r="177" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A177" s="2" t="s">
+      <c r="A176" s="2">
+        <v>170</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>435</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D176" s="2">
+        <f t="shared" si="4"/>
+        <v>102</v>
+      </c>
+      <c r="E176" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="F176" s="2"/>
+      <c r="G176" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A177" s="2">
+        <v>171</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D177" s="2">
+        <f t="shared" si="4"/>
+        <v>102</v>
+      </c>
+      <c r="E177" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="F177" s="2"/>
+      <c r="G177" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A178" s="2">
+        <v>172</v>
+      </c>
+      <c r="B178" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D178" s="2">
+        <f t="shared" si="4"/>
+        <v>102</v>
+      </c>
+      <c r="E178" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="F178" s="2"/>
+      <c r="G178" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A179" s="2">
+        <v>173</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>441</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D179" s="2">
+        <f t="shared" si="4"/>
+        <v>102</v>
+      </c>
+      <c r="E179" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="F179" s="2"/>
+      <c r="G179" s="9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A180" s="2">
+        <v>174</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>443</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D180" s="2">
+        <f t="shared" si="4"/>
+        <v>102</v>
+      </c>
+      <c r="E180" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="F180" s="2"/>
+      <c r="G180" s="9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A181" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+    </row>
+    <row r="182" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A182" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="B182" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="C182" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="D182" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E177" s="1" t="s">
+      <c r="E182" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A178" s="2">
-        <v>170</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D178" s="2">
-        <f>LEN(B178)</f>
-        <v>34</v>
-      </c>
-      <c r="E178" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A179" s="2">
-        <v>171</v>
-      </c>
-      <c r="B179" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="C179" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D179" s="2">
-        <f t="shared" ref="D179:D218" si="5">LEN(B179)</f>
-        <v>34</v>
-      </c>
-      <c r="E179" s="2" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A180" s="2">
-        <v>172</v>
-      </c>
-      <c r="B180" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="C180" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D180" s="2">
-        <f t="shared" si="5"/>
-        <v>32</v>
-      </c>
-      <c r="E180" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A181" s="2">
-        <v>173</v>
-      </c>
-      <c r="B181" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="C181" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D181" s="2">
-        <f t="shared" si="5"/>
-        <v>32</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A182" s="2">
-        <v>174</v>
-      </c>
-      <c r="B182" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D182" s="2">
-        <f t="shared" si="5"/>
-        <v>33</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>175</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>266</v>
       </c>
       <c r="D183" s="2">
-        <f t="shared" si="5"/>
-        <v>33</v>
+        <f>LEN(B183)</f>
+        <v>34</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>176</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>266</v>
       </c>
       <c r="D184" s="2">
-        <f t="shared" si="5"/>
-        <v>32</v>
+        <f t="shared" ref="D184:D223" si="5">LEN(B184)</f>
+        <v>34</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>177</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>266</v>
@@ -6817,15 +6899,15 @@
         <v>32</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>178</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>266</v>
@@ -6835,69 +6917,69 @@
         <v>32</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>179</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>266</v>
       </c>
       <c r="D187" s="2">
         <f t="shared" si="5"/>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>180</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>266</v>
       </c>
       <c r="D188" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>181</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>266</v>
       </c>
       <c r="D189" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>182</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>266</v>
@@ -6907,15 +6989,15 @@
         <v>32</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>183</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>266</v>
@@ -6925,25 +7007,25 @@
         <v>32</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>184</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>266</v>
       </c>
       <c r="D192" s="2">
         <f t="shared" si="5"/>
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -6951,17 +7033,17 @@
         <v>185</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>266</v>
       </c>
       <c r="D193" s="2">
         <f t="shared" si="5"/>
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -6969,17 +7051,17 @@
         <v>186</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>266</v>
       </c>
       <c r="D194" s="2">
         <f t="shared" si="5"/>
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -6987,107 +7069,107 @@
         <v>187</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>266</v>
       </c>
       <c r="D195" s="2">
         <f t="shared" si="5"/>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>188</v>
       </c>
-      <c r="B196" s="2" t="s">
-        <v>380</v>
+      <c r="B196" s="3" t="s">
+        <v>373</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>266</v>
       </c>
       <c r="D196" s="2">
         <f t="shared" si="5"/>
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>189</v>
       </c>
-      <c r="B197" s="2" t="s">
-        <v>382</v>
+      <c r="B197" s="3" t="s">
+        <v>374</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>266</v>
       </c>
       <c r="D197" s="2">
         <f t="shared" si="5"/>
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>190</v>
       </c>
-      <c r="B198" s="2" t="s">
-        <v>384</v>
+      <c r="B198" s="3" t="s">
+        <v>376</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>266</v>
       </c>
       <c r="D198" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="199" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>191</v>
       </c>
-      <c r="B199" s="2" t="s">
-        <v>386</v>
+      <c r="B199" s="3" t="s">
+        <v>377</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>266</v>
       </c>
       <c r="D199" s="2">
         <f t="shared" si="5"/>
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>192</v>
       </c>
-      <c r="B200" s="2" t="s">
-        <v>388</v>
+      <c r="B200" s="3" t="s">
+        <v>379</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>266</v>
       </c>
       <c r="D200" s="2">
         <f t="shared" si="5"/>
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -7095,17 +7177,17 @@
         <v>193</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>266</v>
       </c>
       <c r="D201" s="2">
         <f t="shared" si="5"/>
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -7113,17 +7195,17 @@
         <v>194</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>266</v>
       </c>
       <c r="D202" s="2">
         <f t="shared" si="5"/>
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -7131,17 +7213,17 @@
         <v>195</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>266</v>
       </c>
       <c r="D203" s="2">
         <f t="shared" si="5"/>
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="204" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -7149,17 +7231,17 @@
         <v>196</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>266</v>
       </c>
       <c r="D204" s="2">
         <f t="shared" si="5"/>
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -7167,17 +7249,17 @@
         <v>197</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>266</v>
       </c>
       <c r="D205" s="2">
         <f t="shared" si="5"/>
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -7185,17 +7267,17 @@
         <v>198</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>266</v>
       </c>
       <c r="D206" s="2">
         <f t="shared" si="5"/>
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
     </row>
     <row r="207" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -7203,17 +7285,17 @@
         <v>199</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>266</v>
       </c>
       <c r="D207" s="2">
         <f t="shared" si="5"/>
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -7221,17 +7303,17 @@
         <v>200</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>266</v>
       </c>
       <c r="D208" s="2">
         <f t="shared" si="5"/>
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
     </row>
     <row r="209" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -7239,17 +7321,17 @@
         <v>201</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>266</v>
       </c>
       <c r="D209" s="2">
         <f t="shared" si="5"/>
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
     </row>
     <row r="210" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -7257,17 +7339,17 @@
         <v>202</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>266</v>
       </c>
       <c r="D210" s="2">
         <f t="shared" si="5"/>
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -7275,17 +7357,17 @@
         <v>203</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>266</v>
       </c>
       <c r="D211" s="2">
         <f t="shared" si="5"/>
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>406</v>
+        <v>381</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -7293,17 +7375,17 @@
         <v>204</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>266</v>
       </c>
       <c r="D212" s="2">
         <f t="shared" si="5"/>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -7311,17 +7393,17 @@
         <v>205</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>266</v>
       </c>
       <c r="D213" s="2">
         <f t="shared" si="5"/>
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -7329,17 +7411,17 @@
         <v>206</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>266</v>
       </c>
       <c r="D214" s="2">
         <f t="shared" si="5"/>
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -7347,17 +7429,17 @@
         <v>207</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>266</v>
       </c>
       <c r="D215" s="2">
         <f t="shared" si="5"/>
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -7365,17 +7447,17 @@
         <v>208</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>266</v>
       </c>
       <c r="D216" s="2">
         <f t="shared" si="5"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -7383,17 +7465,17 @@
         <v>209</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>266</v>
       </c>
       <c r="D217" s="2">
         <f t="shared" si="5"/>
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -7401,173 +7483,173 @@
         <v>210</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>266</v>
       </c>
       <c r="D218" s="2">
         <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A219" s="2">
+        <v>211</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D219" s="2">
+        <f t="shared" si="5"/>
+        <v>44</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A220" s="2">
+        <v>212</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D220" s="2">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A221" s="2">
+        <v>213</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D221" s="2">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A222" s="2">
+        <v>214</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D222" s="2">
+        <f t="shared" si="5"/>
+        <v>59</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A223" s="2">
+        <v>215</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D223" s="2">
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
-      <c r="E218" s="2" t="s">
+      <c r="E223" s="2" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A219" s="5" t="s">
+    <row r="224" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A224" s="2">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A225" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C225" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A226" s="2">
+        <v>217</v>
+      </c>
+      <c r="B226" s="3" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A220" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A221">
-        <v>211</v>
-      </c>
-      <c r="B221" s="3" t="s">
+      <c r="C226" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D226" s="2">
+        <f>LEN(B226)</f>
+        <v>15</v>
+      </c>
+      <c r="E226" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C221" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D221" s="2">
-        <f>LEN(B221)</f>
+    </row>
+    <row r="227" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A227" s="2">
+        <v>218</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D227" s="2">
+        <f t="shared" ref="D227:D235" si="6">LEN(B227)</f>
         <v>15</v>
       </c>
-      <c r="E221" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A222">
-        <v>212</v>
-      </c>
-      <c r="B222" s="2" t="s">
+      <c r="E227" s="2" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A228" s="2">
+        <v>219</v>
+      </c>
+      <c r="B228" s="3" t="s">
         <v>419</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D222" s="2">
-        <f t="shared" ref="D222:D230" si="6">LEN(B222)</f>
-        <v>15</v>
-      </c>
-      <c r="E222" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A223">
-        <v>213</v>
-      </c>
-      <c r="B223" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D223" s="2">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A224">
-        <v>214</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D224" s="2">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="E224" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A225">
-        <v>215</v>
-      </c>
-      <c r="B225" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D225" s="2">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="E225" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A226">
-        <v>216</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D226" s="2">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="E226" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A227">
-        <v>217</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D227" s="2">
-        <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A228">
-        <v>218</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>428</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>266</v>
@@ -7577,15 +7659,15 @@
         <v>15</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="229" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A229">
-        <v>219</v>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A229" s="2">
+        <v>220</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>266</v>
@@ -7595,15 +7677,15 @@
         <v>15</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="230" spans="1:5" ht="17" x14ac:dyDescent="0.2">
-      <c r="A230">
-        <v>220</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>431</v>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A230" s="2">
+        <v>221</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>422</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>266</v>
@@ -7613,8 +7695,128 @@
         <v>15</v>
       </c>
       <c r="E230" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A231" s="2">
+        <v>222</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D231" s="2">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A232" s="2">
+        <v>223</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D232" s="2">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A233" s="2">
+        <v>224</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D233" s="2">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A234" s="2">
+        <v>225</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D234" s="2">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A235" s="2">
+        <v>226</v>
+      </c>
+      <c r="B235" s="2" t="s">
         <v>430</v>
       </c>
+      <c r="C235" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D235" s="2">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A238" s="7"/>
+      <c r="B238" s="7"/>
+      <c r="E238" s="7"/>
+      <c r="F238" s="7"/>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A239" s="7"/>
+      <c r="B239" s="7"/>
+      <c r="E239" s="7"/>
+      <c r="F239" s="7"/>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A240" s="7"/>
+      <c r="B240" s="7"/>
+      <c r="E240" s="7"/>
+      <c r="F240" s="7"/>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A241" s="7"/>
+      <c r="B241" s="7"/>
+      <c r="E241" s="7"/>
+      <c r="F241" s="7"/>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A242" s="7"/>
+      <c r="B242" s="7"/>
+      <c r="E242" s="7"/>
+      <c r="F242" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
